--- a/cpu-build-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
+++ b/cpu-build-riscv/RISC-V单周期硬布线控制器表达式自动生成（2022-8-19）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20963\Desktop\大三上课程\Computer-Organization-Course-Design\cpu21-riscv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20963\Desktop\大三上课程\Computer-Organization-Course-Design\cpu-build-riscv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7B2734-969E-4254-AD21-22CA7A11493D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFF1D24D-47EB-478F-8B93-0CA0B37C4D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="真值表" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="124">
   <si>
     <t>#</t>
   </si>
@@ -77,12 +77,6 @@
   </si>
   <si>
     <t>JAL</t>
-  </si>
-  <si>
-    <t>XXX</t>
-  </si>
-  <si>
-    <t>可增加列，自定义控制信号</t>
   </si>
   <si>
     <t>逻辑表达式最小项</t>
@@ -958,6 +952,14 @@
   </si>
   <si>
     <t>0d</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R1</t>
+    <phoneticPr fontId="26" type="noConversion"/>
+  </si>
+  <si>
+    <t>R2</t>
     <phoneticPr fontId="26" type="noConversion"/>
   </si>
 </sst>
@@ -2189,8 +2191,8 @@
   </sheetPr>
   <dimension ref="A1:AN62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z22" sqref="Z22:Z23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.149999999999999" x14ac:dyDescent="0.55000000000000004"/>
@@ -2220,43 +2222,43 @@
         <v>1</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="68" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F1" s="67" t="s">
+        <v>99</v>
+      </c>
+      <c r="G1" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="H1" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="I1" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="J1" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="K1" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="L1" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="M1" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="N1" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="O1" s="43" t="s">
         <v>108</v>
-      </c>
-      <c r="N1" s="43" t="s">
-        <v>109</v>
-      </c>
-      <c r="O1" s="43" t="s">
-        <v>110</v>
       </c>
       <c r="P1" s="66" t="s">
         <v>2</v>
@@ -2280,16 +2282,16 @@
         <v>8</v>
       </c>
       <c r="W1" s="23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="X1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Y1" s="23" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Z1" s="23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AA1" s="23" t="s">
         <v>10</v>
@@ -2298,48 +2300,46 @@
         <v>11</v>
       </c>
       <c r="AC1" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="AD1" s="25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AE1" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="AF1" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" s="25" t="s">
-        <v>114</v>
-      </c>
       <c r="AH1" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI1" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ1" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="25" t="s">
+      <c r="AK1" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AK1" s="25" t="s">
+      <c r="AL1" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" s="25" t="s">
-        <v>13</v>
-      </c>
       <c r="AM1" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="AN1" s="17" t="s">
-        <v>14</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="AN1" s="25"/>
     </row>
     <row r="2" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="35">
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" s="37">
         <v>0</v>
@@ -2348,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F2" s="20">
         <f>IF(ISNUMBER($C2),IF(MOD($C2,64)/32&gt;=1,1,0),"")</f>
@@ -2428,15 +2428,19 @@
       <c r="AI2" s="36"/>
       <c r="AJ2" s="36"/>
       <c r="AK2" s="36"/>
-      <c r="AL2" s="36"/>
-      <c r="AM2" s="36"/>
+      <c r="AL2" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="57">
         <v>2</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C3" s="44">
         <v>32</v>
@@ -2445,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F3" s="59">
         <f t="shared" ref="F3:F61" si="12">IF(ISNUMBER($C3),IF(MOD($C3,64)/32&gt;=1,1,0),"")</f>
@@ -2525,15 +2529,19 @@
       <c r="AI3" s="58"/>
       <c r="AJ3" s="58"/>
       <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
+      <c r="AL3" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="35">
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C4" s="37">
         <v>0</v>
@@ -2542,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F4" s="20">
         <f t="shared" si="12"/>
@@ -2622,15 +2630,19 @@
       <c r="AI4" s="36"/>
       <c r="AJ4" s="36"/>
       <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
+      <c r="AL4" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="57">
         <v>4</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C5" s="44">
         <v>0</v>
@@ -2639,7 +2651,7 @@
         <v>6</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F5" s="59">
         <f t="shared" si="12"/>
@@ -2719,15 +2731,19 @@
       <c r="AI5" s="58"/>
       <c r="AJ5" s="58"/>
       <c r="AK5" s="58"/>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="58"/>
+      <c r="AL5" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="35">
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="37">
         <v>0</v>
@@ -2736,7 +2752,7 @@
         <v>2</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F6" s="20">
         <f t="shared" si="12"/>
@@ -2816,15 +2832,19 @@
       <c r="AI6" s="36"/>
       <c r="AJ6" s="36"/>
       <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
+      <c r="AL6" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="57">
         <v>6</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C7" s="44">
         <v>0</v>
@@ -2833,7 +2853,7 @@
         <v>3</v>
       </c>
       <c r="E7" s="61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F7" s="59">
         <f t="shared" si="12"/>
@@ -2913,15 +2933,19 @@
       <c r="AI7" s="58"/>
       <c r="AJ7" s="58"/>
       <c r="AK7" s="58"/>
-      <c r="AL7" s="58"/>
-      <c r="AM7" s="58"/>
+      <c r="AL7" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:40" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="35">
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37">
@@ -3010,7 +3034,9 @@
       <c r="AI8" s="36"/>
       <c r="AJ8" s="36"/>
       <c r="AK8" s="36"/>
-      <c r="AL8" s="36"/>
+      <c r="AL8" s="36">
+        <v>1</v>
+      </c>
       <c r="AM8" s="36"/>
     </row>
     <row r="9" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3018,7 +3044,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C9" s="44"/>
       <c r="D9" s="59">
@@ -3107,7 +3133,9 @@
       <c r="AI9" s="58"/>
       <c r="AJ9" s="58"/>
       <c r="AK9" s="58"/>
-      <c r="AL9" s="58"/>
+      <c r="AL9" s="58">
+        <v>1</v>
+      </c>
       <c r="AM9" s="58"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3115,7 +3143,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C10" s="37"/>
       <c r="D10" s="37">
@@ -3204,7 +3232,9 @@
       <c r="AI10" s="36"/>
       <c r="AJ10" s="36"/>
       <c r="AK10" s="36"/>
-      <c r="AL10" s="36"/>
+      <c r="AL10" s="36">
+        <v>1</v>
+      </c>
       <c r="AM10" s="36"/>
     </row>
     <row r="11" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3212,7 +3242,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C11" s="44"/>
       <c r="D11" s="59">
@@ -3301,7 +3331,9 @@
       <c r="AI11" s="58"/>
       <c r="AJ11" s="58"/>
       <c r="AK11" s="58"/>
-      <c r="AL11" s="58"/>
+      <c r="AL11" s="58">
+        <v>1</v>
+      </c>
       <c r="AM11" s="58"/>
     </row>
     <row r="12" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3309,7 +3341,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C12" s="37"/>
       <c r="D12" s="37">
@@ -3398,7 +3430,9 @@
       <c r="AI12" s="36"/>
       <c r="AJ12" s="36"/>
       <c r="AK12" s="36"/>
-      <c r="AL12" s="36"/>
+      <c r="AL12" s="36">
+        <v>1</v>
+      </c>
       <c r="AM12" s="36"/>
     </row>
     <row r="13" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3406,22 +3440,24 @@
         <v>12</v>
       </c>
       <c r="B13" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="44"/>
+        <v>84</v>
+      </c>
+      <c r="C13" s="44">
+        <v>0</v>
+      </c>
       <c r="D13" s="59">
         <v>1</v>
       </c>
       <c r="E13" s="61">
         <v>4</v>
       </c>
-      <c r="F13" s="59" t="str">
+      <c r="F13" s="59">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G13" s="59" t="str">
+        <v>0</v>
+      </c>
+      <c r="G13" s="59">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H13" s="59">
         <f t="shared" si="0"/>
@@ -3495,7 +3531,9 @@
       <c r="AI13" s="58"/>
       <c r="AJ13" s="58"/>
       <c r="AK13" s="58"/>
-      <c r="AL13" s="58"/>
+      <c r="AL13" s="58">
+        <v>1</v>
+      </c>
       <c r="AM13" s="58"/>
     </row>
     <row r="14" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3503,7 +3541,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="37">
         <v>0</v>
@@ -3594,7 +3632,9 @@
       <c r="AI14" s="36"/>
       <c r="AJ14" s="36"/>
       <c r="AK14" s="36"/>
-      <c r="AL14" s="36"/>
+      <c r="AL14" s="36">
+        <v>1</v>
+      </c>
       <c r="AM14" s="36"/>
     </row>
     <row r="15" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3602,7 +3642,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C15" s="44">
         <v>32</v>
@@ -3693,7 +3733,9 @@
       <c r="AI15" s="58"/>
       <c r="AJ15" s="58"/>
       <c r="AK15" s="58"/>
-      <c r="AL15" s="58"/>
+      <c r="AL15" s="58">
+        <v>1</v>
+      </c>
       <c r="AM15" s="58"/>
     </row>
     <row r="16" spans="1:40" x14ac:dyDescent="0.55000000000000004">
@@ -3701,7 +3743,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37">
@@ -3792,7 +3834,9 @@
       <c r="AI16" s="36"/>
       <c r="AJ16" s="36"/>
       <c r="AK16" s="36"/>
-      <c r="AL16" s="36"/>
+      <c r="AL16" s="36">
+        <v>1</v>
+      </c>
       <c r="AM16" s="36"/>
     </row>
     <row r="17" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -3800,7 +3844,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C17" s="44"/>
       <c r="D17" s="59">
@@ -3891,30 +3935,36 @@
       <c r="AI17" s="58"/>
       <c r="AJ17" s="58"/>
       <c r="AK17" s="58"/>
-      <c r="AL17" s="58"/>
-      <c r="AM17" s="58"/>
+      <c r="AL17" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="35">
         <v>17</v>
       </c>
       <c r="B18" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="C18" s="37">
+        <v>0</v>
+      </c>
       <c r="D18" s="37">
         <v>0</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="F18" s="20" t="str">
+        <v>115</v>
+      </c>
+      <c r="F18" s="20">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-      <c r="G18" s="20" t="str">
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="13"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="H18" s="20">
         <f t="shared" si="0"/>
@@ -3984,15 +4034,19 @@
       <c r="AI18" s="36"/>
       <c r="AJ18" s="36"/>
       <c r="AK18" s="36"/>
-      <c r="AL18" s="36"/>
-      <c r="AM18" s="36"/>
+      <c r="AL18" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="57">
         <v>18</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="44"/>
       <c r="D19" s="59">
@@ -4079,15 +4133,19 @@
       <c r="AI19" s="58"/>
       <c r="AJ19" s="58"/>
       <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
+      <c r="AL19" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="35">
         <v>19</v>
       </c>
       <c r="B20" s="31" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="37"/>
       <c r="D20" s="37">
@@ -4174,20 +4232,24 @@
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
       <c r="AK20" s="36"/>
-      <c r="AL20" s="36"/>
-      <c r="AM20" s="36"/>
+      <c r="AL20" s="36">
+        <v>1</v>
+      </c>
+      <c r="AM20" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="57">
         <v>20</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="44"/>
       <c r="D21" s="59"/>
       <c r="E21" s="61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="F21" s="59" t="str">
         <f t="shared" si="12"/>
@@ -4277,7 +4339,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="31" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37">
@@ -4368,7 +4430,9 @@
       <c r="AI22" s="36"/>
       <c r="AJ22" s="36"/>
       <c r="AK22" s="36"/>
-      <c r="AL22" s="36"/>
+      <c r="AL22" s="36">
+        <v>1</v>
+      </c>
       <c r="AM22" s="36"/>
     </row>
     <row r="23" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -4376,14 +4440,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="44"/>
       <c r="D23" s="59">
         <v>6</v>
       </c>
       <c r="E23" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23" s="59" t="str">
         <f t="shared" si="12"/>
@@ -4446,7 +4510,7 @@
       <c r="V23" s="57"/>
       <c r="W23" s="57"/>
       <c r="X23" s="57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="57"/>
       <c r="Z23" s="57"/>
@@ -4471,14 +4535,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="37"/>
       <c r="D24" s="37">
         <v>7</v>
       </c>
       <c r="E24" s="29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="20" t="str">
         <f t="shared" si="12"/>
@@ -4541,7 +4605,7 @@
       <c r="V24" s="31"/>
       <c r="W24" s="31"/>
       <c r="X24" s="31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24" s="31"/>
       <c r="Z24" s="31"/>
@@ -4566,7 +4630,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C25" s="44">
         <v>2</v>
@@ -4575,7 +4639,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F25" s="59">
         <f t="shared" si="12"/>
@@ -4661,7 +4725,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="31" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C26" s="37"/>
       <c r="D26" s="37"/>
@@ -4754,12 +4818,12 @@
         <v>26</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C27" s="44"/>
       <c r="D27" s="59"/>
       <c r="E27" s="61" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F27" s="59" t="str">
         <f t="shared" si="12"/>
@@ -4847,7 +4911,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C28" s="37"/>
       <c r="D28" s="37">
@@ -4919,7 +4983,9 @@
         <v>1</v>
       </c>
       <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
+      <c r="W28" s="31">
+        <v>1</v>
+      </c>
       <c r="X28" s="31">
         <v>1</v>
       </c>
@@ -4938,7 +5004,9 @@
         <v>1</v>
       </c>
       <c r="AK28" s="36"/>
-      <c r="AL28" s="36"/>
+      <c r="AL28" s="36">
+        <v>1</v>
+      </c>
       <c r="AM28" s="36"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -4946,7 +5014,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="57" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C29" s="44"/>
       <c r="D29" s="59">
@@ -5033,8 +5101,12 @@
       <c r="AK29" s="58">
         <v>1</v>
       </c>
-      <c r="AL29" s="58"/>
-      <c r="AM29" s="58"/>
+      <c r="AL29" s="58">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="58">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="35">
@@ -7404,7 +7476,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM1">
+  <conditionalFormatting sqref="AM1:AN1">
     <cfRule type="cellIs" priority="22" operator="notEqual">
       <formula>0</formula>
     </cfRule>
@@ -7473,7 +7545,7 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="输出信号" sqref="Q1:T1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="指令描述符" prompt="指令助记符" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="AluOP " prompt="AluOP 4位选择符二进制位_x000a_" sqref="Q2:T61" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号" prompt="为1时填1，其他值不填_x000a__x000a_输入信号的标签用户可自行修改，也可在右侧自行增加列，新增控制信号" sqref="AG1:AM1048576 U26:AF1048576 U1:AF1 AN1" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="输出信号情况" prompt="为1时填1，其他不填！" sqref="U2:AF25" xr:uid="{00000000-0002-0000-0000-000004000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="OpCode" prompt="OpCode  6个二进制位" sqref="F62:F1048576 K1:O1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Func字段二进制位" prompt="Func字段6个二进制位" sqref="G2:J1048576 F2:F61" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
@@ -7495,9 +7567,9 @@
   </sheetPr>
   <dimension ref="A1:AX63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -7575,7 +7647,7 @@
         <v>OP2</v>
       </c>
       <c r="O1" s="21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="P1" s="23" t="str">
         <f>真值表!Q1</f>
@@ -7663,11 +7735,11 @@
       </c>
       <c r="AK1" s="25" t="str">
         <f>真值表!AL1</f>
-        <v>XXX</v>
+        <v>R1</v>
       </c>
       <c r="AL1" s="25" t="str">
         <f>真值表!AM1</f>
-        <v>XXX</v>
+        <v>R2</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7817,11 +7889,11 @@
       </c>
       <c r="AK2" s="24" t="str">
         <f>IF(真值表!AL2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL2" s="24" t="str">
         <f>IF(真值表!AM2=1,$O2&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="3" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -7971,11 +8043,11 @@
       </c>
       <c r="AK3" s="49" t="str">
         <f>IF(真值表!AL3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL3" s="49" t="str">
         <f>IF(真值表!AM3=1,$O3&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="4" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8125,11 +8197,11 @@
       </c>
       <c r="AK4" s="24" t="str">
         <f>IF(真值表!AL4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL4" s="24" t="str">
         <f>IF(真值表!AM4=1,$O4&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8279,11 +8351,11 @@
       </c>
       <c r="AK5" s="49" t="str">
         <f>IF(真值表!AL5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL5" s="49" t="str">
         <f>IF(真值表!AM5=1,$O5&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8433,11 +8505,11 @@
       </c>
       <c r="AK6" s="24" t="str">
         <f>IF(真值表!AL6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL6" s="24" t="str">
         <f>IF(真值表!AM6=1,$O6&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="7" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8587,11 +8659,11 @@
       </c>
       <c r="AK7" s="49" t="str">
         <f>IF(真值表!AL7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL7" s="49" t="str">
         <f>IF(真值表!AM7=1,$O7&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="8" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -8741,7 +8813,7 @@
       </c>
       <c r="AK8" s="24" t="str">
         <f>IF(真值表!AL8=1,$O8&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL8" s="24" t="str">
         <f>IF(真值表!AM8=1,$O8&amp;"+","")</f>
@@ -8895,7 +8967,7 @@
       </c>
       <c r="AK9" s="49" t="str">
         <f>IF(真值表!AL9=1,$O9&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL9" s="49" t="str">
         <f>IF(真值表!AM9=1,$O9&amp;"+","")</f>
@@ -9049,7 +9121,7 @@
       </c>
       <c r="AK10" s="24" t="str">
         <f>IF(真值表!AL10=1,$O10&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL10" s="24" t="str">
         <f>IF(真值表!AM10=1,$O10&amp;"+","")</f>
@@ -9203,7 +9275,7 @@
       </c>
       <c r="AK11" s="49" t="str">
         <f>IF(真值表!AL11=1,$O11&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL11" s="49" t="str">
         <f>IF(真值表!AM11=1,$O11&amp;"+","")</f>
@@ -9357,7 +9429,7 @@
       </c>
       <c r="AK12" s="24" t="str">
         <f>IF(真值表!AL12=1,$O12&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL12" s="24" t="str">
         <f>IF(真值表!AM12=1,$O12&amp;"+","")</f>
@@ -9369,9 +9441,9 @@
         <f>IF(ISBLANK(真值表!B13),"",真值表!B13)</f>
         <v>slli</v>
       </c>
-      <c r="B13" s="45" t="str">
+      <c r="B13" s="45">
         <f>IF(ISBLANK(真值表!C13),"",真值表!C13)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C13" s="52">
         <f>IF(ISBLANK(真值表!D13),"",真值表!D13)</f>
@@ -9383,11 +9455,11 @@
       </c>
       <c r="E13" s="47" t="str">
         <f>IF(真值表!F13=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F13=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F13" s="47" t="str">
         <f>IF(真值表!G13=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G13=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G13" s="47" t="str">
         <f>IF(真值表!H13=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H13=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
@@ -9423,7 +9495,7 @@
       </c>
       <c r="O13" s="48" t="str">
         <f t="shared" si="0"/>
-        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P13" s="49" t="str">
         <f>IF(真值表!Q13=1,$O13&amp;"+","")</f>
@@ -9451,11 +9523,11 @@
       </c>
       <c r="V13" s="49" t="str">
         <f>IF(真值表!W13=1,$O13&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W13" s="49" t="str">
         <f>IF(真值表!X13=1,$O13&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X13" s="49" t="str">
         <f>IF(真值表!Y13=1,$O13&amp;"+","")</f>
@@ -9511,7 +9583,7 @@
       </c>
       <c r="AK13" s="49" t="str">
         <f>IF(真值表!AL13=1,$O13&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL13" s="49" t="str">
         <f>IF(真值表!AM13=1,$O13&amp;"+","")</f>
@@ -9665,7 +9737,7 @@
       </c>
       <c r="AK14" s="24" t="str">
         <f>IF(真值表!AL14=1,$O14&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL14" s="24" t="str">
         <f>IF(真值表!AM14=1,$O14&amp;"+","")</f>
@@ -9819,7 +9891,7 @@
       </c>
       <c r="AK15" s="49" t="str">
         <f>IF(真值表!AL15=1,$O15&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL15" s="49" t="str">
         <f>IF(真值表!AM15=1,$O15&amp;"+","")</f>
@@ -9973,7 +10045,7 @@
       </c>
       <c r="AK16" s="24" t="str">
         <f>IF(真值表!AL16=1,$O16&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL16" s="24" t="str">
         <f>IF(真值表!AM16=1,$O16&amp;"+","")</f>
@@ -10127,11 +10199,11 @@
       </c>
       <c r="AK17" s="49" t="str">
         <f>IF(真值表!AL17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL17" s="49" t="str">
         <f>IF(真值表!AM17=1,$O17&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="18" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -10139,9 +10211,9 @@
         <f>IF(ISBLANK(真值表!B18),"",真值表!B18)</f>
         <v>ecall</v>
       </c>
-      <c r="B18" s="37" t="str">
+      <c r="B18" s="37">
         <f>IF(ISBLANK(真值表!C18),"",真值表!C18)</f>
-        <v/>
+        <v>0</v>
       </c>
       <c r="C18" s="37">
         <f>IF(ISBLANK(真值表!D18),"",真值表!D18)</f>
@@ -10153,11 +10225,11 @@
       </c>
       <c r="E18" s="55" t="str">
         <f>IF(真值表!F18=1," "&amp;真值表!F$1&amp;"&amp;",IF(真值表!F18=0,"~"&amp;真值表!F$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F30&amp;</v>
       </c>
       <c r="F18" s="55" t="str">
         <f>IF(真值表!G18=1," "&amp;真值表!G$1&amp;"&amp;",IF(真值表!G18=0,"~"&amp;真值表!G$1&amp;"&amp;",""))</f>
-        <v/>
+        <v>~F25&amp;</v>
       </c>
       <c r="G18" s="55" t="str">
         <f>IF(真值表!H18=1," "&amp;真值表!H$1&amp;"&amp;",IF(真值表!H18=0,"~"&amp;真值表!H$1&amp;"&amp;",""))</f>
@@ -10193,7 +10265,7 @@
       </c>
       <c r="O18" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="P18" s="24" t="str">
         <f>IF(真值表!Q18=1,$O18&amp;"+","")</f>
@@ -10229,7 +10301,7 @@
       </c>
       <c r="X18" s="24" t="str">
         <f>IF(真值表!Y18=1,$O18&amp;"+","")</f>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y18" s="24" t="str">
         <f>IF(真值表!Z18=1,$O18&amp;"+","")</f>
@@ -10281,11 +10353,11 @@
       </c>
       <c r="AK18" s="24" t="str">
         <f>IF(真值表!AL18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL18" s="24" t="str">
         <f>IF(真值表!AM18=1,$O18&amp;"+","")</f>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="19" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -10435,11 +10507,11 @@
       </c>
       <c r="AK19" s="49" t="str">
         <f>IF(真值表!AL19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL19" s="49" t="str">
         <f>IF(真值表!AM19=1,$O19&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="20" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -10589,11 +10661,11 @@
       </c>
       <c r="AK20" s="24" t="str">
         <f>IF(真值表!AL20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL20" s="24" t="str">
         <f>IF(真值表!AM20=1,$O20&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="21" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -10897,7 +10969,7 @@
       </c>
       <c r="AK22" s="24" t="str">
         <f>IF(真值表!AL22=1,$O22&amp;"+","")</f>
-        <v/>
+        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
       </c>
       <c r="AL22" s="24" t="str">
         <f>IF(真值表!AM22=1,$O22&amp;"+","")</f>
@@ -10995,7 +11067,7 @@
       </c>
       <c r="W23" s="49" t="str">
         <f>IF(真值表!X23=1,$O23&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X23" s="49" t="str">
         <f>IF(真值表!Y23=1,$O23&amp;"+","")</f>
@@ -11149,7 +11221,7 @@
       </c>
       <c r="W24" s="24" t="str">
         <f>IF(真值表!X24=1,$O24&amp;"+","")</f>
-        <v xml:space="preserve"> F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v/>
       </c>
       <c r="X24" s="24" t="str">
         <f>IF(真值表!Y24=1,$O24&amp;"+","")</f>
@@ -11761,7 +11833,7 @@
       </c>
       <c r="V28" s="24" t="str">
         <f>IF(真值表!W28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W28" s="24" t="str">
         <f>IF(真值表!X28=1,$O28&amp;"+","")</f>
@@ -11821,7 +11893,7 @@
       </c>
       <c r="AK28" s="24" t="str">
         <f>IF(真值表!AL28=1,$O28&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL28" s="24" t="str">
         <f>IF(真值表!AM28=1,$O28&amp;"+","")</f>
@@ -11975,11 +12047,11 @@
       </c>
       <c r="AK29" s="49" t="str">
         <f>IF(真值表!AL29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL29" s="49" t="str">
         <f>IF(真值表!AM29=1,$O29&amp;"+","")</f>
-        <v/>
+        <v xml:space="preserve"> F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
     </row>
     <row r="30" spans="1:38" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
@@ -16296,7 +16368,7 @@
     </row>
     <row r="58" spans="1:50" ht="17.149999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B58" s="71"/>
       <c r="C58" s="71"/>
@@ -16338,15 +16410,15 @@
       </c>
       <c r="V58" s="32" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="W58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="X58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="Y58" s="32" t="str">
         <f t="shared" si="2"/>
@@ -16398,11 +16470,11 @@
       </c>
       <c r="AK58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
       <c r="AL58" s="30" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2</v>
       </c>
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.35">
@@ -16438,15 +16510,15 @@
       </c>
       <c r="V59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+</v>
+        <v>~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="W59" t="str">
         <f t="shared" si="3"/>
-        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp; F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ OP6&amp; OP5&amp;~OP4&amp; OP3&amp; OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp; OP2+~OP6&amp; OP5&amp; OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="X59" t="str">
         <f t="shared" si="3"/>
-        <v>~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="Y59" t="str">
         <f t="shared" si="3"/>
@@ -16498,11 +16570,11 @@
       </c>
       <c r="AK59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp; F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp; OP2+ F14&amp;~F13&amp; F12&amp;~OP6&amp;~OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AL59" t="str">
         <f t="shared" si="3"/>
-        <v/>
+        <v>~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+ F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp; F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp; F13&amp; F12&amp;~OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp; F13&amp;~F12&amp;~OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F30&amp;~F25&amp;~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp; OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+~F14&amp;~F13&amp; F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+ F14&amp;~F13&amp;~F12&amp; OP6&amp; OP5&amp;~OP4&amp;~OP3&amp;~OP2+</v>
       </c>
       <c r="AM59" t="str">
         <f t="shared" si="3"/>
@@ -16555,7 +16627,7 @@
     </row>
     <row r="61" spans="1:50" ht="17.149999999999999" x14ac:dyDescent="0.6">
       <c r="P61" s="73" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q61" s="73"/>
       <c r="R61" s="73"/>
@@ -16575,7 +16647,7 @@
     </row>
     <row r="63" spans="1:50" ht="17.149999999999999" x14ac:dyDescent="0.35">
       <c r="Q63" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -16653,98 +16725,98 @@
         <v>2</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A2" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B2" s="12">
         <v>0</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="12">
         <v>1</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A4" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" s="12">
         <v>2</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="12">
         <v>4</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B7" s="12">
         <v>5</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="12">
         <v>6</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A9" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="12">
         <v>7</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
@@ -16755,7 +16827,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
@@ -16766,7 +16838,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
@@ -16777,7 +16849,7 @@
         <v>10</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
@@ -16788,7 +16860,7 @@
         <v>11</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.6">
@@ -16799,7 +16871,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -16831,13 +16903,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16848,10 +16920,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16862,10 +16934,10 @@
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16873,13 +16945,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16887,13 +16959,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16901,13 +16973,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16915,13 +16987,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16929,13 +17001,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16946,10 +17018,10 @@
         <v>12</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16957,13 +17029,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="1" customFormat="1" ht="20.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16971,13 +17043,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="1" customFormat="1" ht="66.55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -16985,13 +17057,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
